--- a/controller/src/main/resources/jxls_templates/qitazichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/qitazichan.xlsx
@@ -83,64 +83,61 @@
   </si>
   <si>
     <t>備考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現場実施者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVOICEとの一致性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入荷写真との一致性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梱包状況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現場担当者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸出部門担当者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現場TL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸出部門TL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>備考</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>現場実施者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVOICEとの一致性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入荷写真との一致性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梱包状況</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現場担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸出部門担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最終確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現場TL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸出部門TL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実施日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HSコード</t>
   </si>
   <si>
@@ -165,6 +162,10 @@
   </si>
   <si>
     <t>機材名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,34 +624,34 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="R1" t="s">
         <v>8</v>
@@ -674,49 +675,49 @@
         <v>15</v>
       </c>
       <c r="Y1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z1" t="s">
         <v>11</v>
       </c>
       <c r="AA1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>29</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/controller/src/main/resources/jxls_templates/qitazichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/qitazichan.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/IdeaProjects/newparkcloud/controller/src/main/resources/jxls_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="640" windowWidth="23040" windowHeight="8780"/>
+    <workbookView xWindow="4464" yWindow="636" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>名称</t>
   </si>
@@ -166,6 +163,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,22 +587,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="17" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.796875" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" customWidth="1"/>
+    <col min="5" max="5" width="24.796875" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="7" max="17" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,8 +722,11 @@
       <c r="AM1" t="s">
         <v>29</v>
       </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/qitazichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/qitazichan.xlsx
@@ -53,9 +53,6 @@
     <t>INVOICEと一致性</t>
   </si>
   <si>
-    <t>設備写真あるか</t>
-  </si>
-  <si>
     <t>輸出部門担当者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,9 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HSコード</t>
-  </si>
-  <si>
     <t>輸入日付</t>
   </si>
   <si>
@@ -167,6 +161,14 @@
   </si>
   <si>
     <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备写真あるか</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -627,103 +629,103 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
         <v>8</v>
       </c>
       <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" t="s">
-        <v>29</v>
-      </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
